--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_25_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_25_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>449603.0013886387</v>
+        <v>378675.4317864409</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10334148.96627842</v>
+        <v>10334922.83450519</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7868603.719797402</v>
+        <v>7868743.980730429</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>56.70400066026085</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.91528667358037</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>81.61928733384138</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>92.66494928910245</v>
       </c>
     </row>
     <row r="3">
@@ -740,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>92.6649492891022</v>
+        <v>81.61928733384138</v>
       </c>
       <c r="D3" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>81.61928733384123</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>104.0764085515868</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -940,22 +940,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.61164031771682</v>
+        <v>18.93475531691712</v>
       </c>
       <c r="R5" t="n">
-        <v>95.3531516584621</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>99.89669918677748</v>
+        <v>72.73574533532052</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>104.0764085515868</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>104.0764085515868</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -980,25 +980,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>69.17729809440617</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>102.3448132540521</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>30.08282103867671</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.256558775821418</v>
+        <v>11.35828799687371</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1028,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>104.0764085515868</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>80.31221265536395</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>104.0764085515868</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>104.0764085515868</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1.555083488386528</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>89.51459657566055</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>126.9458560974893</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.39567937957066</v>
+        <v>13.35474617162012</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,25 +1177,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>8.944567303387799</v>
       </c>
       <c r="R8" t="n">
-        <v>95.3531516584621</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>126.9458560974893</v>
       </c>
       <c r="U8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>126.9458560974893</v>
       </c>
       <c r="W8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1217,25 +1217,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>68.56852257030405</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>4.914433631276444</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>102.3448132540521</v>
+        <v>102.0257834655354</v>
       </c>
       <c r="I9" t="n">
-        <v>64.26286446312977</v>
+        <v>63.12554210170563</v>
       </c>
       <c r="J9" t="n">
-        <v>30.08282103867671</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821418</v>
+        <v>5.039918010612723</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>126.9458560974893</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>126.9458560974893</v>
       </c>
     </row>
     <row r="10">
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>7.778950646888539</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>238.7131121817923</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I11" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T11" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>42.52869142548307</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>149.3330251697681</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I12" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U12" t="n">
-        <v>93.21114789495013</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>29.85116173898106</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>185.9158911817657</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>189.2183449480056</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H14" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>11.68315732586849</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1688,19 +1688,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>38.03450153271632</v>
       </c>
       <c r="D15" t="n">
-        <v>51.85254607929755</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>7.256470454725522</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>185.6279506608914</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>177.8799912255098</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>270.2872524650057</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.533596135769468</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1934,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,13 +1976,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>192.7273697641395</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>54.44540214508297</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.53630916455033</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U19" t="n">
-        <v>226.129522408233</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>5.838468212390546</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.8541122488589</v>
+        <v>191.3784863087037</v>
       </c>
       <c r="H20" t="n">
-        <v>304.156568607517</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>77.52276399229618</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>130.4345213309785</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>207.9994924610077</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0697628865344</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>137.4098141164182</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T21" t="n">
-        <v>192.7273697641395</v>
+        <v>115.9288536912284</v>
       </c>
       <c r="U21" t="n">
-        <v>153.7499567829063</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4440447871722</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>108.9299334562043</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>202.8931874886841</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>40.18132549171565</v>
       </c>
     </row>
     <row r="23">
@@ -2323,13 +2323,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>244.2492367528317</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>39.32117841962486</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>114.0495374903437</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>61.36917500886968</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>62.06770645812217</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>43.17365427545018</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851005</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>61.36917500886953</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>12.12106316694056</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>98.79072260135304</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>15.3385464702611</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>54.45803047044437</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>162.5876496242951</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>14.59946548753672</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
         <v>18.81721868247745</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>117.7126336312583</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>20.95866062610926</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>306.7874773947161</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>147.0290144562267</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>41.74347609701255</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>20.95866062610916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>245.7853873250192</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3565,10 +3565,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>56.9154762431856</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>87.90466670537569</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>93.26432376799995</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>56.22992883261666</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>42.64559995940225</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646375</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>20.95866062610929</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>72.08802744677213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,16 +3979,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>170.7412391063446</v>
+        <v>33.38304376058834</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>29.25105537525245</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>87.62154955555259</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89.85692052276578</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="C2" t="n">
-        <v>89.85692052276578</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="D2" t="n">
-        <v>89.85692052276578</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="E2" t="n">
-        <v>89.85692052276578</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="F2" t="n">
-        <v>89.85692052276578</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="G2" t="n">
-        <v>89.85692052276578</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="H2" t="n">
-        <v>89.85692052276578</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="I2" t="n">
-        <v>32.58015217906794</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="J2" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="K2" t="n">
-        <v>21.18357364821451</v>
+        <v>21.18357364821467</v>
       </c>
       <c r="L2" t="n">
-        <v>75.16870670940374</v>
+        <v>75.16870670940388</v>
       </c>
       <c r="M2" t="n">
-        <v>166.9070065056148</v>
+        <v>166.9070065056153</v>
       </c>
       <c r="N2" t="n">
-        <v>258.6453063018261</v>
+        <v>258.6453063018267</v>
       </c>
       <c r="O2" t="n">
-        <v>337.6943058037292</v>
+        <v>337.6943058037301</v>
       </c>
       <c r="P2" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="R2" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="S2" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="T2" t="n">
-        <v>277.0588382785278</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="U2" t="n">
-        <v>277.0588382785278</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="V2" t="n">
-        <v>183.4578794006468</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="W2" t="n">
-        <v>183.4578794006468</v>
+        <v>277.0588382785285</v>
       </c>
       <c r="X2" t="n">
-        <v>183.4578794006468</v>
+        <v>194.6151136988908</v>
       </c>
       <c r="Y2" t="n">
-        <v>183.4578794006468</v>
+        <v>101.0141548210095</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>370.6597971564088</v>
+        <v>183.4578794006472</v>
       </c>
       <c r="C3" t="n">
-        <v>277.0588382785278</v>
+        <v>101.0141548210095</v>
       </c>
       <c r="D3" t="n">
-        <v>183.4578794006468</v>
+        <v>101.0141548210095</v>
       </c>
       <c r="E3" t="n">
-        <v>89.85692052276578</v>
+        <v>101.0141548210095</v>
       </c>
       <c r="F3" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210095</v>
       </c>
       <c r="G3" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="H3" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="I3" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="J3" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="K3" t="n">
-        <v>7.413195943128176</v>
+        <v>28.29609765201177</v>
       </c>
       <c r="L3" t="n">
-        <v>43.08143125983008</v>
+        <v>102.698277264897</v>
       </c>
       <c r="M3" t="n">
-        <v>134.8197310560413</v>
+        <v>194.4365770611084</v>
       </c>
       <c r="N3" t="n">
-        <v>226.5580308522524</v>
+        <v>286.1748768573199</v>
       </c>
       <c r="O3" t="n">
-        <v>317.2247932514005</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="P3" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="Q3" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="R3" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="S3" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="T3" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="U3" t="n">
-        <v>370.6597971564088</v>
+        <v>277.0588382785285</v>
       </c>
       <c r="V3" t="n">
-        <v>370.6597971564088</v>
+        <v>277.0588382785285</v>
       </c>
       <c r="W3" t="n">
-        <v>370.6597971564088</v>
+        <v>183.4578794006472</v>
       </c>
       <c r="X3" t="n">
-        <v>370.6597971564088</v>
+        <v>183.4578794006472</v>
       </c>
       <c r="Y3" t="n">
-        <v>370.6597971564088</v>
+        <v>183.4578794006472</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="C4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="D4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="E4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="F4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="G4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="H4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="I4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="J4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="K4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="L4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="M4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="N4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="O4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="P4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="R4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="S4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="T4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="U4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="V4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="W4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="X4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128196</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.2141240472905</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="C5" t="n">
-        <v>122.2141240472905</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="D5" t="n">
-        <v>122.2141240472905</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="E5" t="n">
-        <v>122.2141240472905</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="F5" t="n">
-        <v>8.969012809993892</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="G5" t="n">
-        <v>8.969012809993892</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="H5" t="n">
-        <v>8.969012809993892</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="I5" t="n">
-        <v>8.969012809993892</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="J5" t="n">
-        <v>8.969012809993892</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="K5" t="n">
-        <v>32.11753523687545</v>
+        <v>27.59936511590496</v>
       </c>
       <c r="L5" t="n">
-        <v>97.73708609773408</v>
+        <v>88.41130087302435</v>
       </c>
       <c r="M5" t="n">
-        <v>202.4209174083929</v>
+        <v>187.7457340525141</v>
       </c>
       <c r="N5" t="n">
-        <v>313.4124509320674</v>
+        <v>290.781378518585</v>
       </c>
       <c r="O5" t="n">
-        <v>404.8833474416797</v>
+        <v>377.1192549923297</v>
       </c>
       <c r="P5" t="n">
-        <v>448.4506404996946</v>
+        <v>416.3056342063473</v>
       </c>
       <c r="Q5" t="n">
-        <v>432.6813068454352</v>
+        <v>397.1796187347139</v>
       </c>
       <c r="R5" t="n">
-        <v>336.3649920389078</v>
+        <v>397.1796187347139</v>
       </c>
       <c r="S5" t="n">
-        <v>223.1198808016112</v>
+        <v>397.1796187347139</v>
       </c>
       <c r="T5" t="n">
-        <v>122.2141240472905</v>
+        <v>323.7091689010568</v>
       </c>
       <c r="U5" t="n">
-        <v>122.2141240472905</v>
+        <v>218.5814834954135</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2141240472905</v>
+        <v>113.4537980897702</v>
       </c>
       <c r="W5" t="n">
-        <v>122.2141240472905</v>
+        <v>113.4537980897702</v>
       </c>
       <c r="X5" t="n">
-        <v>122.2141240472905</v>
+        <v>113.4537980897702</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.2141240472905</v>
+        <v>113.4537980897702</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>439.100581130178</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="C6" t="n">
-        <v>439.100581130178</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="D6" t="n">
-        <v>369.2245224489596</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="E6" t="n">
-        <v>255.979411211663</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="F6" t="n">
-        <v>255.979411211663</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="G6" t="n">
-        <v>142.7342999743664</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="H6" t="n">
-        <v>39.35570072784915</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="I6" t="n">
-        <v>39.35570072784915</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="J6" t="n">
-        <v>8.969012809993892</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="K6" t="n">
-        <v>36.22166818534551</v>
+        <v>32.94663601288129</v>
       </c>
       <c r="L6" t="n">
-        <v>119.1887676792232</v>
+        <v>112.3745091448393</v>
       </c>
       <c r="M6" t="n">
-        <v>230.1803012028977</v>
+        <v>215.4101536109102</v>
       </c>
       <c r="N6" t="n">
-        <v>287.4309731640694</v>
+        <v>318.4457980769812</v>
       </c>
       <c r="O6" t="n">
-        <v>387.4830745953194</v>
+        <v>414.6196566548819</v>
       </c>
       <c r="P6" t="n">
-        <v>448.4506404996946</v>
+        <v>416.3056342063473</v>
       </c>
       <c r="Q6" t="n">
-        <v>439.100581130178</v>
+        <v>404.832616027687</v>
       </c>
       <c r="R6" t="n">
-        <v>439.100581130178</v>
+        <v>404.832616027687</v>
       </c>
       <c r="S6" t="n">
-        <v>439.100581130178</v>
+        <v>404.832616027687</v>
       </c>
       <c r="T6" t="n">
-        <v>439.100581130178</v>
+        <v>299.7049306220438</v>
       </c>
       <c r="U6" t="n">
-        <v>439.100581130178</v>
+        <v>299.7049306220438</v>
       </c>
       <c r="V6" t="n">
-        <v>439.100581130178</v>
+        <v>218.5814834954135</v>
       </c>
       <c r="W6" t="n">
-        <v>439.100581130178</v>
+        <v>113.4537980897702</v>
       </c>
       <c r="X6" t="n">
-        <v>439.100581130178</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="Y6" t="n">
-        <v>439.100581130178</v>
+        <v>8.326112684126947</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537582</v>
       </c>
       <c r="C7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537582</v>
       </c>
       <c r="D7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537582</v>
       </c>
       <c r="E7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537582</v>
       </c>
       <c r="F7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537582</v>
       </c>
       <c r="G7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537582</v>
       </c>
       <c r="H7" t="n">
-        <v>12.63101027343186</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="I7" t="n">
-        <v>12.63101027343186</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="J7" t="n">
-        <v>12.63101027343186</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="K7" t="n">
-        <v>12.63101027343186</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="L7" t="n">
-        <v>12.63101027343186</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="M7" t="n">
-        <v>8.969012809993892</v>
+        <v>8.326112684126947</v>
       </c>
       <c r="N7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537582</v>
       </c>
       <c r="O7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537582</v>
       </c>
       <c r="P7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537582</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537582</v>
       </c>
       <c r="R7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537582</v>
       </c>
       <c r="S7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537582</v>
       </c>
       <c r="T7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537582</v>
       </c>
       <c r="U7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537582</v>
       </c>
       <c r="V7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537582</v>
       </c>
       <c r="W7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537582</v>
       </c>
       <c r="X7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537582</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.63101027343186</v>
+        <v>9.896904086537582</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.39899198127739</v>
+        <v>242.2922329774658</v>
       </c>
       <c r="C8" t="n">
-        <v>12.39899198127739</v>
+        <v>242.2922329774658</v>
       </c>
       <c r="D8" t="n">
-        <v>12.39899198127739</v>
+        <v>151.8734485576067</v>
       </c>
       <c r="E8" t="n">
-        <v>12.39899198127739</v>
+        <v>151.8734485576067</v>
       </c>
       <c r="F8" t="n">
-        <v>12.39899198127739</v>
+        <v>151.8734485576067</v>
       </c>
       <c r="G8" t="n">
-        <v>12.39899198127739</v>
+        <v>151.8734485576067</v>
       </c>
       <c r="H8" t="n">
-        <v>12.39899198127739</v>
+        <v>23.64531108539523</v>
       </c>
       <c r="I8" t="n">
-        <v>12.39899198127739</v>
+        <v>23.64531108539523</v>
       </c>
       <c r="J8" t="n">
-        <v>8.969012809993895</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687565</v>
+        <v>41.07903710983521</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773419</v>
+        <v>116.3439721747117</v>
       </c>
       <c r="M8" t="n">
-        <v>202.4209174083931</v>
+        <v>231.7601518789119</v>
       </c>
       <c r="N8" t="n">
-        <v>313.4124509320675</v>
+        <v>353.6576944134599</v>
       </c>
       <c r="O8" t="n">
-        <v>404.8833474416798</v>
+        <v>455.4268259740344</v>
       </c>
       <c r="P8" t="n">
-        <v>448.4506404996948</v>
+        <v>507.7834243899571</v>
       </c>
       <c r="Q8" t="n">
-        <v>448.4506404996948</v>
+        <v>498.7485079218886</v>
       </c>
       <c r="R8" t="n">
-        <v>352.1343256931674</v>
+        <v>498.7485079218886</v>
       </c>
       <c r="S8" t="n">
-        <v>238.8892144558707</v>
+        <v>498.7485079218886</v>
       </c>
       <c r="T8" t="n">
-        <v>238.8892144558707</v>
+        <v>370.5203704496772</v>
       </c>
       <c r="U8" t="n">
-        <v>125.6441032185741</v>
+        <v>370.5203704496772</v>
       </c>
       <c r="V8" t="n">
-        <v>125.6441032185741</v>
+        <v>242.2922329774658</v>
       </c>
       <c r="W8" t="n">
-        <v>12.39899198127739</v>
+        <v>242.2922329774658</v>
       </c>
       <c r="X8" t="n">
-        <v>12.39899198127739</v>
+        <v>242.2922329774658</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.39899198127739</v>
+        <v>242.2922329774658</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>325.8554698928815</v>
+        <v>246.2363231721882</v>
       </c>
       <c r="C9" t="n">
-        <v>325.8554698928815</v>
+        <v>246.2363231721882</v>
       </c>
       <c r="D9" t="n">
-        <v>325.8554698928815</v>
+        <v>176.9751892627901</v>
       </c>
       <c r="E9" t="n">
-        <v>325.8554698928815</v>
+        <v>176.9751892627901</v>
       </c>
       <c r="F9" t="n">
-        <v>320.8913955178548</v>
+        <v>176.9751892627901</v>
       </c>
       <c r="G9" t="n">
-        <v>207.6462842805581</v>
+        <v>176.9751892627901</v>
       </c>
       <c r="H9" t="n">
-        <v>104.2676850340409</v>
+        <v>73.91884232790585</v>
       </c>
       <c r="I9" t="n">
-        <v>39.35570072784916</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="J9" t="n">
-        <v>8.969012809993895</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="K9" t="n">
-        <v>8.969012809993895</v>
+        <v>42.6890970359848</v>
       </c>
       <c r="L9" t="n">
-        <v>91.93611230387164</v>
+        <v>132.7568477486242</v>
       </c>
       <c r="M9" t="n">
-        <v>202.9276458275461</v>
+        <v>257.2185327811917</v>
       </c>
       <c r="N9" t="n">
-        <v>313.9191793512205</v>
+        <v>332.7381600555115</v>
       </c>
       <c r="O9" t="n">
-        <v>387.4830745953196</v>
+        <v>440.571072044567</v>
       </c>
       <c r="P9" t="n">
-        <v>448.4506404996948</v>
+        <v>507.7834243899572</v>
       </c>
       <c r="Q9" t="n">
-        <v>439.1005811301782</v>
+        <v>502.692598116611</v>
       </c>
       <c r="R9" t="n">
-        <v>439.1005811301782</v>
+        <v>502.692598116611</v>
       </c>
       <c r="S9" t="n">
-        <v>439.1005811301782</v>
+        <v>502.692598116611</v>
       </c>
       <c r="T9" t="n">
-        <v>325.8554698928815</v>
+        <v>502.692598116611</v>
       </c>
       <c r="U9" t="n">
-        <v>325.8554698928815</v>
+        <v>502.692598116611</v>
       </c>
       <c r="V9" t="n">
-        <v>325.8554698928815</v>
+        <v>374.4644606443996</v>
       </c>
       <c r="W9" t="n">
-        <v>325.8554698928815</v>
+        <v>374.4644606443996</v>
       </c>
       <c r="X9" t="n">
-        <v>325.8554698928815</v>
+        <v>374.4644606443996</v>
       </c>
       <c r="Y9" t="n">
-        <v>325.8554698928815</v>
+        <v>246.2363231721882</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.969012809993895</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="C10" t="n">
-        <v>8.969012809993895</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="D10" t="n">
-        <v>8.969012809993895</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="E10" t="n">
-        <v>8.969012809993895</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="F10" t="n">
-        <v>8.969012809993895</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="G10" t="n">
-        <v>8.969012809993895</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="H10" t="n">
-        <v>8.969012809993895</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="I10" t="n">
-        <v>8.969012809993895</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="J10" t="n">
-        <v>8.969012809993895</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="K10" t="n">
-        <v>8.969012809993895</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="L10" t="n">
-        <v>8.969012809993895</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="M10" t="n">
-        <v>8.969012809993895</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="N10" t="n">
-        <v>12.63101027343186</v>
+        <v>18.01319439374716</v>
       </c>
       <c r="O10" t="n">
-        <v>8.969012809993895</v>
+        <v>18.01319439374716</v>
       </c>
       <c r="P10" t="n">
-        <v>8.969012809993895</v>
+        <v>18.01319439374716</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.969012809993895</v>
+        <v>18.01319439374716</v>
       </c>
       <c r="R10" t="n">
-        <v>8.969012809993895</v>
+        <v>18.01319439374716</v>
       </c>
       <c r="S10" t="n">
-        <v>8.969012809993895</v>
+        <v>18.01319439374716</v>
       </c>
       <c r="T10" t="n">
-        <v>8.969012809993895</v>
+        <v>18.01319439374716</v>
       </c>
       <c r="U10" t="n">
-        <v>8.969012809993895</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="V10" t="n">
-        <v>8.969012809993895</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="W10" t="n">
-        <v>8.969012809993895</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="X10" t="n">
-        <v>8.969012809993895</v>
+        <v>10.15566848779914</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.969012809993895</v>
+        <v>10.15566848779914</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>845.7541926763687</v>
+        <v>798.6856643201876</v>
       </c>
       <c r="C11" t="n">
-        <v>845.7541926763687</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="D11" t="n">
-        <v>845.7541926763687</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="E11" t="n">
-        <v>845.7541926763687</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="F11" t="n">
-        <v>845.7541926763687</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="G11" t="n">
         <v>429.7231473797759</v>
@@ -5038,55 +5038,55 @@
         <v>122.3223344947425</v>
       </c>
       <c r="I11" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J11" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K11" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L11" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711882</v>
       </c>
       <c r="M11" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N11" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O11" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q11" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R11" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S11" t="n">
-        <v>2036.325171642784</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T11" t="n">
-        <v>1826.151173794699</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="U11" t="n">
-        <v>1572.544009457208</v>
+        <v>1782.718007305298</v>
       </c>
       <c r="V11" t="n">
-        <v>1241.481122113637</v>
+        <v>1782.718007305298</v>
       </c>
       <c r="W11" t="n">
-        <v>888.7124668435233</v>
+        <v>1429.949352035183</v>
       </c>
       <c r="X11" t="n">
-        <v>845.7541926763687</v>
+        <v>1429.949352035183</v>
       </c>
       <c r="Y11" t="n">
-        <v>845.7541926763687</v>
+        <v>1039.810020059372</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>767.0731087616919</v>
+        <v>759.5879999501756</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0731087616919</v>
+        <v>585.1349706690486</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1386991004406</v>
+        <v>436.2005610077973</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9012440949851</v>
+        <v>285.359121442375</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3666861218701</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="G12" t="n">
-        <v>175.490692336986</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H12" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I12" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J12" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K12" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L12" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M12" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N12" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O12" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P12" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q12" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R12" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S12" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T12" t="n">
-        <v>1766.227047333487</v>
+        <v>1571.516725807466</v>
       </c>
       <c r="U12" t="n">
-        <v>1672.074372692123</v>
+        <v>1343.41513594073</v>
       </c>
       <c r="V12" t="n">
-        <v>1436.92226446038</v>
+        <v>1343.41513594073</v>
       </c>
       <c r="W12" t="n">
-        <v>1182.684907732179</v>
+        <v>1343.41513594073</v>
       </c>
       <c r="X12" t="n">
-        <v>974.8334075266457</v>
+        <v>1135.563635735198</v>
       </c>
       <c r="Y12" t="n">
-        <v>767.0731087616919</v>
+        <v>927.8033369702437</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="C13" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="D13" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="E13" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F13" t="n">
-        <v>490.1366584153657</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G13" t="n">
-        <v>322.003829010384</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H13" t="n">
-        <v>171.9636155141767</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I13" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J13" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K13" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L13" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M13" t="n">
-        <v>287.1411594927332</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N13" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O13" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P13" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="R13" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="S13" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="T13" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="U13" t="n">
-        <v>520.2893470405991</v>
+        <v>231.1630260146242</v>
       </c>
       <c r="V13" t="n">
-        <v>520.2893470405991</v>
+        <v>231.1630260146242</v>
       </c>
       <c r="W13" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="X13" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="Y13" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809315</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>845.7541926763687</v>
+        <v>1061.515787985915</v>
       </c>
       <c r="C14" t="n">
-        <v>845.7541926763687</v>
+        <v>1061.515787985915</v>
       </c>
       <c r="D14" t="n">
-        <v>845.7541926763687</v>
+        <v>1061.515787985915</v>
       </c>
       <c r="E14" t="n">
-        <v>845.7541926763687</v>
+        <v>870.3861466242935</v>
       </c>
       <c r="F14" t="n">
-        <v>845.7541926763687</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G14" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H14" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I14" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J14" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301906</v>
       </c>
       <c r="K14" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L14" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711885</v>
       </c>
       <c r="M14" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N14" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.28654013517</v>
       </c>
       <c r="O14" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q14" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R14" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S14" t="n">
-        <v>2156.658657888624</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T14" t="n">
-        <v>2156.658657888624</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="U14" t="n">
-        <v>1903.051493551133</v>
+        <v>1782.718007305298</v>
       </c>
       <c r="V14" t="n">
-        <v>1571.988606207563</v>
+        <v>1451.655119961727</v>
       </c>
       <c r="W14" t="n">
-        <v>1219.219950937449</v>
+        <v>1451.655119961727</v>
       </c>
       <c r="X14" t="n">
-        <v>845.7541926763687</v>
+        <v>1451.655119961727</v>
       </c>
       <c r="Y14" t="n">
-        <v>845.7541926763687</v>
+        <v>1061.515787985915</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>270.1985349902277</v>
+        <v>524.4358917184329</v>
       </c>
       <c r="C15" t="n">
-        <v>95.74550570910068</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="D15" t="n">
-        <v>43.36919653809306</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E15" t="n">
-        <v>43.36919653809306</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F15" t="n">
-        <v>43.36919653809306</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G15" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H15" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I15" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J15" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K15" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L15" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M15" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N15" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O15" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P15" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q15" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R15" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S15" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T15" t="n">
-        <v>1571.516725807463</v>
+        <v>1571.516725807466</v>
       </c>
       <c r="U15" t="n">
-        <v>1343.415135940727</v>
+        <v>1343.41513594073</v>
       </c>
       <c r="V15" t="n">
-        <v>1108.263027708984</v>
+        <v>1108.263027708988</v>
       </c>
       <c r="W15" t="n">
-        <v>854.0256709807825</v>
+        <v>1108.263027708988</v>
       </c>
       <c r="X15" t="n">
-        <v>646.1741707752496</v>
+        <v>900.4115275034549</v>
       </c>
       <c r="Y15" t="n">
-        <v>438.4138720102957</v>
+        <v>692.651228738501</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="C16" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="D16" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="E16" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F16" t="n">
-        <v>490.1366584153657</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G16" t="n">
-        <v>322.003829010384</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H16" t="n">
-        <v>171.9636155141767</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I16" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J16" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K16" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L16" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M16" t="n">
-        <v>287.1411594927332</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N16" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O16" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P16" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q16" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="R16" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="S16" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="T16" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="U16" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="V16" t="n">
-        <v>497.4664265514521</v>
+        <v>332.7863665750538</v>
       </c>
       <c r="W16" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="X16" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="Y16" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809315</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>685.7545054940442</v>
+        <v>709.035708029877</v>
       </c>
       <c r="C17" t="n">
-        <v>316.7919885536325</v>
+        <v>709.035708029877</v>
       </c>
       <c r="D17" t="n">
-        <v>43.77456182130344</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="E17" t="n">
-        <v>43.77456182130344</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="F17" t="n">
-        <v>43.77456182130344</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="G17" t="n">
-        <v>43.77456182130344</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H17" t="n">
-        <v>43.77456182130344</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I17" t="n">
-        <v>43.77456182130344</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J17" t="n">
-        <v>154.3098974465502</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K17" t="n">
-        <v>370.7122304649386</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L17" t="n">
-        <v>676.0802220354394</v>
+        <v>669.5878927711863</v>
       </c>
       <c r="M17" t="n">
-        <v>1047.530388214574</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N17" t="n">
-        <v>1429.604814800513</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O17" t="n">
-        <v>1777.051600222989</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P17" t="n">
-        <v>2039.088392256639</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q17" t="n">
-        <v>2187.694363687273</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R17" t="n">
-        <v>2188.728091065172</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S17" t="n">
-        <v>2188.728091065172</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T17" t="n">
-        <v>2188.728091065172</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U17" t="n">
-        <v>2188.728091065172</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="V17" t="n">
-        <v>2188.728091065172</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="W17" t="n">
-        <v>1835.959435795058</v>
+        <v>888.7124668435233</v>
       </c>
       <c r="X17" t="n">
-        <v>1462.493677533978</v>
+        <v>888.7124668435233</v>
       </c>
       <c r="Y17" t="n">
-        <v>1072.354345558166</v>
+        <v>888.7124668435233</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>672.9340137422522</v>
+        <v>658.1155862848198</v>
       </c>
       <c r="C18" t="n">
-        <v>498.4809844611252</v>
+        <v>483.6625570036928</v>
       </c>
       <c r="D18" t="n">
-        <v>349.546574799874</v>
+        <v>334.7281473424415</v>
       </c>
       <c r="E18" t="n">
-        <v>190.3091197944185</v>
+        <v>175.490692336986</v>
       </c>
       <c r="F18" t="n">
-        <v>43.77456182130344</v>
+        <v>175.490692336986</v>
       </c>
       <c r="G18" t="n">
-        <v>43.77456182130344</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H18" t="n">
-        <v>43.77456182130344</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I18" t="n">
-        <v>43.77456182130344</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J18" t="n">
-        <v>90.79080351985047</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K18" t="n">
-        <v>249.30387394439</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L18" t="n">
-        <v>508.7668000132208</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M18" t="n">
-        <v>830.9046648322173</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N18" t="n">
-        <v>1175.977205297587</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O18" t="n">
-        <v>1469.431369231846</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P18" t="n">
-        <v>1685.621140921906</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q18" t="n">
-        <v>1780.219081611985</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R18" t="n">
-        <v>1780.219081611985</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="S18" t="n">
-        <v>1780.219081611985</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="T18" t="n">
-        <v>1585.544970739117</v>
+        <v>1571.516725807462</v>
       </c>
       <c r="U18" t="n">
-        <v>1585.544970739117</v>
+        <v>1343.415135940726</v>
       </c>
       <c r="V18" t="n">
-        <v>1350.392862507374</v>
+        <v>1288.419780238622</v>
       </c>
       <c r="W18" t="n">
-        <v>1096.155505779173</v>
+        <v>1034.182423510421</v>
       </c>
       <c r="X18" t="n">
-        <v>888.3040055736399</v>
+        <v>826.3309233048878</v>
       </c>
       <c r="Y18" t="n">
-        <v>680.543706808686</v>
+        <v>826.3309233048878</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1705.629943861069</v>
+        <v>296.6854897332225</v>
       </c>
       <c r="C19" t="n">
-        <v>1705.629943861069</v>
+        <v>127.7493068053156</v>
       </c>
       <c r="D19" t="n">
-        <v>1705.629943861069</v>
+        <v>127.7493068053156</v>
       </c>
       <c r="E19" t="n">
-        <v>1705.629943861069</v>
+        <v>127.7493068053156</v>
       </c>
       <c r="F19" t="n">
-        <v>1705.629943861069</v>
+        <v>127.7493068053156</v>
       </c>
       <c r="G19" t="n">
-        <v>1705.629943861069</v>
+        <v>127.7493068053156</v>
       </c>
       <c r="H19" t="n">
-        <v>1705.629943861069</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I19" t="n">
-        <v>1705.629943861069</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J19" t="n">
-        <v>1705.629943861069</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K19" t="n">
-        <v>1755.835232661619</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L19" t="n">
-        <v>1849.986514952577</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M19" t="n">
-        <v>1952.514124158695</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N19" t="n">
-        <v>2060.461381884314</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O19" t="n">
-        <v>2139.85505724626</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P19" t="n">
-        <v>2188.728091065172</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q19" t="n">
-        <v>2188.728091065172</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R19" t="n">
-        <v>2188.728091065172</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S19" t="n">
-        <v>2188.728091065172</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T19" t="n">
-        <v>2188.728091065172</v>
+        <v>296.6854897332225</v>
       </c>
       <c r="U19" t="n">
-        <v>1960.314432066956</v>
+        <v>296.6854897332225</v>
       </c>
       <c r="V19" t="n">
-        <v>1705.629943861069</v>
+        <v>296.6854897332225</v>
       </c>
       <c r="W19" t="n">
-        <v>1705.629943861069</v>
+        <v>296.6854897332225</v>
       </c>
       <c r="X19" t="n">
-        <v>1705.629943861069</v>
+        <v>296.6854897332225</v>
       </c>
       <c r="Y19" t="n">
-        <v>1705.629943861069</v>
+        <v>296.6854897332225</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1262.206843440267</v>
+        <v>1391.720654864719</v>
       </c>
       <c r="C20" t="n">
-        <v>1262.206843440267</v>
+        <v>1391.720654864719</v>
       </c>
       <c r="D20" t="n">
-        <v>1262.206843440267</v>
+        <v>1033.454956257969</v>
       </c>
       <c r="E20" t="n">
-        <v>1256.309400801489</v>
+        <v>647.6667036597246</v>
       </c>
       <c r="F20" t="n">
-        <v>845.3234960118814</v>
+        <v>236.680798870117</v>
       </c>
       <c r="G20" t="n">
-        <v>429.3092412150542</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H20" t="n">
-        <v>122.080384035744</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I20" t="n">
-        <v>43.77456182130344</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J20" t="n">
-        <v>154.3098974465499</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K20" t="n">
-        <v>370.7122304649383</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L20" t="n">
-        <v>676.0802220354394</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M20" t="n">
-        <v>1047.530388214574</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N20" t="n">
-        <v>1429.604814800513</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O20" t="n">
-        <v>1777.051600222989</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P20" t="n">
-        <v>2039.088392256639</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q20" t="n">
-        <v>2187.694363687273</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R20" t="n">
-        <v>2188.728091065172</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S20" t="n">
-        <v>2056.976049316709</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T20" t="n">
-        <v>1846.875551881347</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U20" t="n">
-        <v>1593.269730783838</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V20" t="n">
-        <v>1262.206843440267</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W20" t="n">
-        <v>1262.206843440267</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="X20" t="n">
-        <v>1262.206843440267</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="Y20" t="n">
-        <v>1262.206843440267</v>
+        <v>1778.320494928841</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>218.2275911024304</v>
+        <v>377.0596808246756</v>
       </c>
       <c r="C21" t="n">
-        <v>43.77456182130344</v>
+        <v>202.6066515435486</v>
       </c>
       <c r="D21" t="n">
-        <v>43.77456182130344</v>
+        <v>202.6066515435486</v>
       </c>
       <c r="E21" t="n">
-        <v>43.77456182130344</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F21" t="n">
-        <v>43.77456182130344</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G21" t="n">
-        <v>43.77456182130344</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H21" t="n">
-        <v>43.77456182130344</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I21" t="n">
-        <v>43.77456182130344</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J21" t="n">
-        <v>90.79080351985039</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K21" t="n">
-        <v>249.3038739443898</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L21" t="n">
-        <v>508.7668000132204</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M21" t="n">
-        <v>830.9046648322168</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N21" t="n">
-        <v>1175.977205297586</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O21" t="n">
-        <v>1469.431369231846</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P21" t="n">
-        <v>1685.621140921905</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q21" t="n">
-        <v>1780.219081611984</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R21" t="n">
-        <v>1780.219081611984</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S21" t="n">
-        <v>1641.421289575198</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T21" t="n">
-        <v>1446.74717870233</v>
+        <v>1510.162534621842</v>
       </c>
       <c r="U21" t="n">
-        <v>1291.44419205293</v>
+        <v>1282.060944755107</v>
       </c>
       <c r="V21" t="n">
-        <v>1056.292083821187</v>
+        <v>1046.908836523364</v>
       </c>
       <c r="W21" t="n">
-        <v>802.0547270929852</v>
+        <v>792.6714797951623</v>
       </c>
       <c r="X21" t="n">
-        <v>594.2032268874524</v>
+        <v>584.8199795896295</v>
       </c>
       <c r="Y21" t="n">
-        <v>386.4429281224985</v>
+        <v>377.0596808246756</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>321.9300954004717</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C22" t="n">
-        <v>321.9300954004717</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D22" t="n">
-        <v>321.9300954004717</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E22" t="n">
-        <v>321.9300954004717</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F22" t="n">
-        <v>321.9300954004717</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G22" t="n">
-        <v>153.8047976356513</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H22" t="n">
-        <v>153.8047976356513</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I22" t="n">
-        <v>43.77456182130344</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J22" t="n">
-        <v>43.77456182130344</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K22" t="n">
-        <v>93.97985062185327</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L22" t="n">
-        <v>188.1311329128107</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M22" t="n">
-        <v>290.6587421189287</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N22" t="n">
-        <v>398.6059998445477</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O22" t="n">
-        <v>477.999675206494</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P22" t="n">
-        <v>526.8727090254051</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q22" t="n">
-        <v>526.8727090254051</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R22" t="n">
-        <v>526.8727090254051</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S22" t="n">
-        <v>526.8727090254051</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T22" t="n">
-        <v>526.8727090254051</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U22" t="n">
-        <v>321.9300954004717</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V22" t="n">
-        <v>321.9300954004717</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="W22" t="n">
-        <v>321.9300954004717</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="X22" t="n">
-        <v>321.9300954004717</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="Y22" t="n">
-        <v>321.9300954004717</v>
+        <v>225.0176613683328</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2303.170539913434</v>
+        <v>1575.915835277607</v>
       </c>
       <c r="C23" t="n">
-        <v>1934.208022973022</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="D23" t="n">
-        <v>1575.942324366272</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
@@ -6019,22 +6019,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3119.628073993393</v>
+        <v>3078.889420848735</v>
       </c>
       <c r="V23" t="n">
-        <v>3119.628073993393</v>
+        <v>3078.889420848735</v>
       </c>
       <c r="W23" t="n">
-        <v>3079.909711953368</v>
+        <v>2726.12076557862</v>
       </c>
       <c r="X23" t="n">
-        <v>3079.909711953368</v>
+        <v>2352.65500731754</v>
       </c>
       <c r="Y23" t="n">
-        <v>2689.770379977556</v>
+        <v>1962.515675341729</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>128.5011820977084</v>
+        <v>181.7136694527326</v>
       </c>
       <c r="C25" t="n">
-        <v>128.5011820977084</v>
+        <v>181.7136694527326</v>
       </c>
       <c r="D25" t="n">
-        <v>128.5011820977084</v>
+        <v>181.7136694527326</v>
       </c>
       <c r="E25" t="n">
-        <v>128.5011820977084</v>
+        <v>181.7136694527326</v>
       </c>
       <c r="F25" t="n">
-        <v>128.5011820977084</v>
+        <v>181.7136694527326</v>
       </c>
       <c r="G25" t="n">
-        <v>128.5011820977084</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>128.5011820977084</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218342</v>
@@ -6171,28 +6171,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R25" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S25" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T25" t="n">
-        <v>417.6040489720648</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U25" t="n">
-        <v>128.5011820977084</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V25" t="n">
-        <v>128.5011820977084</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="W25" t="n">
-        <v>128.5011820977084</v>
+        <v>409.70322035075</v>
       </c>
       <c r="X25" t="n">
-        <v>128.5011820977084</v>
+        <v>181.7136694527326</v>
       </c>
       <c r="Y25" t="n">
-        <v>128.5011820977084</v>
+        <v>181.7136694527326</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2005.586939522201</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>879.7731733615572</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218339</v>
@@ -6256,22 +6256,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3119.628073993392</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V26" t="n">
-        <v>2788.565186649821</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W26" t="n">
-        <v>2435.796531379707</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X26" t="n">
-        <v>2392.186779586323</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y26" t="n">
-        <v>2392.186779586323</v>
+        <v>1624.638712032429</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>176.0213023927768</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I27" t="n">
         <v>66.51211643218339</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2533.219997888693</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C28" t="n">
-        <v>2533.219997888693</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D28" t="n">
-        <v>2533.219997888693</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E28" t="n">
-        <v>2533.219997888693</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F28" t="n">
-        <v>2533.219997888693</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K28" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L28" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M28" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N28" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O28" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P28" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R28" t="n">
-        <v>3235.775364366697</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S28" t="n">
-        <v>3044.089480193524</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T28" t="n">
-        <v>2822.32286476305</v>
+        <v>908.6435076697597</v>
       </c>
       <c r="U28" t="n">
-        <v>2533.219997888693</v>
+        <v>908.6435076697597</v>
       </c>
       <c r="V28" t="n">
-        <v>2533.219997888693</v>
+        <v>653.9590194638729</v>
       </c>
       <c r="W28" t="n">
-        <v>2533.219997888693</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="X28" t="n">
-        <v>2533.219997888693</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="Y28" t="n">
-        <v>2533.219997888693</v>
+        <v>364.5418494269122</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1575.942324366272</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C29" t="n">
-        <v>1575.942324366272</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D29" t="n">
-        <v>1575.942324366272</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E29" t="n">
-        <v>1190.154071768027</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218343</v>
@@ -6490,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3225.817212920936</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3019.839465305158</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U29" t="n">
-        <v>3019.839465305158</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V29" t="n">
-        <v>2688.776577961587</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W29" t="n">
-        <v>2336.007922691473</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X29" t="n">
-        <v>1962.542164430393</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y29" t="n">
-        <v>1962.542164430393</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="30">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>290.4564109463978</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C31" t="n">
-        <v>121.5202280184909</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
         <v>66.51211643218343</v>
@@ -6663,10 +6663,10 @@
         <v>920.887005818185</v>
       </c>
       <c r="X31" t="n">
-        <v>692.8974549201677</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y31" t="n">
-        <v>472.1048757766375</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2047.583838282732</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="C32" t="n">
-        <v>1678.62132134232</v>
+        <v>1385.781921542235</v>
       </c>
       <c r="D32" t="n">
-        <v>1320.35562273557</v>
+        <v>1027.516222935485</v>
       </c>
       <c r="E32" t="n">
-        <v>934.5673701373257</v>
+        <v>641.7279703372405</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>230.742065547633</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>230.742065547633</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218342</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V32" t="n">
-        <v>2788.565186649822</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W32" t="n">
-        <v>2435.796531379708</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X32" t="n">
-        <v>2062.330773118628</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y32" t="n">
-        <v>2047.583838282732</v>
+        <v>2141.344278546769</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
         <v>85.51940803064548</v>
@@ -6803,28 +6803,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S34" t="n">
-        <v>3133.919937435997</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T34" t="n">
-        <v>3015.018287303413</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U34" t="n">
-        <v>2725.915420429056</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V34" t="n">
-        <v>2471.230932223169</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W34" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="X34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2047.583838282732</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C35" t="n">
-        <v>1678.62132134232</v>
+        <v>1535.524858594925</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.35562273557</v>
+        <v>1177.259159988175</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>791.4709073899305</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218342</v>
@@ -6964,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339056</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X35" t="n">
-        <v>2824.323010322666</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y35" t="n">
-        <v>2434.183678346854</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
@@ -7040,28 +7040,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2471.230932223169</v>
+        <v>403.4802848832067</v>
       </c>
       <c r="C37" t="n">
-        <v>2471.230932223169</v>
+        <v>403.4802848832067</v>
       </c>
       <c r="D37" t="n">
-        <v>2471.230932223169</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E37" t="n">
-        <v>2471.230932223169</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U37" t="n">
-        <v>3036.502954734814</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V37" t="n">
-        <v>2781.818466528927</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W37" t="n">
-        <v>2492.401296491967</v>
+        <v>631.469835781224</v>
       </c>
       <c r="X37" t="n">
-        <v>2471.230932223169</v>
+        <v>403.4802848832067</v>
       </c>
       <c r="Y37" t="n">
-        <v>2471.230932223169</v>
+        <v>403.4802848832067</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1590.514489367197</v>
+        <v>1480.516858765517</v>
       </c>
       <c r="C38" t="n">
-        <v>1221.551972426786</v>
+        <v>1111.554341825105</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2862738200351</v>
+        <v>1111.554341825105</v>
       </c>
       <c r="E38" t="n">
-        <v>477.498021221791</v>
+        <v>725.7660892268609</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218339</v>
+        <v>314.7801844372534</v>
       </c>
       <c r="G38" t="n">
         <v>66.51211643218339</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794323</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450752</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W38" t="n">
-        <v>2367.25366140713</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="X38" t="n">
-        <v>2367.25366140713</v>
+        <v>2257.25603080545</v>
       </c>
       <c r="Y38" t="n">
-        <v>1977.114329431319</v>
+        <v>1867.116698829639</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>471.1308394896932</v>
+        <v>160.7185040766278</v>
       </c>
       <c r="C40" t="n">
-        <v>302.1946565617864</v>
+        <v>160.7185040766278</v>
       </c>
       <c r="D40" t="n">
-        <v>213.4020639300937</v>
+        <v>160.7185040766278</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4020639300937</v>
+        <v>160.7185040766278</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218339</v>
+        <v>160.7185040766278</v>
       </c>
       <c r="G40" t="n">
         <v>66.51211643218339</v>
@@ -7362,22 +7362,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T40" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U40" t="n">
-        <v>699.1203903877106</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V40" t="n">
-        <v>699.1203903877106</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="W40" t="n">
-        <v>699.1203903877106</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="X40" t="n">
-        <v>471.1308394896932</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="Y40" t="n">
-        <v>471.1308394896932</v>
+        <v>342.3669689068675</v>
       </c>
     </row>
     <row r="41">
@@ -7441,22 +7441,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>3062.830166081658</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V41" t="n">
-        <v>2731.767278738087</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W41" t="n">
-        <v>2731.767278738087</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X41" t="n">
-        <v>2731.767278738087</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y41" t="n">
-        <v>2731.767278738087</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
         <v>618.1564155387305</v>
@@ -7514,28 +7514,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3325.60582160917</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="C43" t="n">
-        <v>3156.669638681263</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="D43" t="n">
-        <v>3006.552999268927</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="E43" t="n">
-        <v>2858.639905686534</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="F43" t="n">
-        <v>2711.749958188624</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G43" t="n">
-        <v>2544.047121563342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H43" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K43" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L43" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M43" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N43" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O43" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P43" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R43" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S43" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T43" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U43" t="n">
-        <v>3325.60582160917</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V43" t="n">
-        <v>3325.60582160917</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W43" t="n">
-        <v>3325.60582160917</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="X43" t="n">
-        <v>3325.60582160917</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="Y43" t="n">
-        <v>3325.60582160917</v>
+        <v>87.68248070098065</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1208.812782134349</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C44" t="n">
-        <v>839.8502651939375</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
-        <v>481.5845665871869</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>481.5845665871869</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218339</v>
@@ -7678,22 +7678,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3042.849255049048</v>
+        <v>3181.594906913448</v>
       </c>
       <c r="U44" t="n">
-        <v>3042.849255049048</v>
+        <v>3181.594906913448</v>
       </c>
       <c r="V44" t="n">
-        <v>2711.786367705477</v>
+        <v>3181.594906913448</v>
       </c>
       <c r="W44" t="n">
-        <v>2359.017712435363</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X44" t="n">
-        <v>1985.551954174283</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y44" t="n">
-        <v>1595.412622198471</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>263.7614736385275</v>
+        <v>155.0187321448628</v>
       </c>
       <c r="C46" t="n">
-        <v>263.7614736385275</v>
+        <v>155.0187321448628</v>
       </c>
       <c r="D46" t="n">
-        <v>263.7614736385275</v>
+        <v>155.0187321448628</v>
       </c>
       <c r="E46" t="n">
-        <v>234.2149530574644</v>
+        <v>155.0187321448628</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574644</v>
+        <v>155.0187321448628</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218339</v>
@@ -7836,22 +7836,22 @@
         <v>920.8870058181842</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181842</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="U46" t="n">
-        <v>920.8870058181842</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="V46" t="n">
-        <v>666.2025176122974</v>
+        <v>444.4359021818234</v>
       </c>
       <c r="W46" t="n">
-        <v>666.2025176122974</v>
+        <v>155.0187321448628</v>
       </c>
       <c r="X46" t="n">
-        <v>666.2025176122974</v>
+        <v>155.0187321448628</v>
       </c>
       <c r="Y46" t="n">
-        <v>445.4099384687672</v>
+        <v>155.0187321448628</v>
       </c>
     </row>
   </sheetData>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290.0688923743784</v>
+        <v>290.0688923743782</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22567,10 +22567,10 @@
         <v>320.6353766150897</v>
       </c>
       <c r="I2" t="n">
-        <v>82.8521328632888</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>24.91528667358025</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>23.65357118422324</v>
+        <v>23.65357118422313</v>
       </c>
       <c r="R2" t="n">
-        <v>100.0310828299331</v>
+        <v>100.031082829933</v>
       </c>
       <c r="S2" t="n">
-        <v>167.1010256612668</v>
+        <v>167.1010256612667</v>
       </c>
       <c r="T2" t="n">
-        <v>122.3782128463251</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U2" t="n">
         <v>251.1984878605957</v>
       </c>
       <c r="V2" t="n">
-        <v>235.0873091810327</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>256.5760194283106</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>288.1118133446276</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>293.5729893669511</v>
       </c>
     </row>
     <row r="3">
@@ -22628,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>80.04354969921354</v>
+        <v>91.08921165447435</v>
       </c>
       <c r="D3" t="n">
-        <v>54.78011627553656</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>64.98013116629875</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>63.44992505954265</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.3592641379443</v>
+        <v>43.69431484884186</v>
       </c>
       <c r="H3" t="n">
         <v>102.729632124056</v>
       </c>
       <c r="I3" t="n">
-        <v>65.63472101605001</v>
+        <v>65.63472101604998</v>
       </c>
       <c r="J3" t="n">
-        <v>33.84730027516773</v>
+        <v>33.84730027516765</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,10 +22670,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.3427387906227</v>
+        <v>14.34273879062262</v>
       </c>
       <c r="R3" t="n">
-        <v>84.56947841277972</v>
+        <v>84.56947841277967</v>
       </c>
       <c r="S3" t="n">
         <v>153.4011028494393</v>
@@ -22682,13 +22682,13 @@
         <v>196.197498299121</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8766285924705</v>
+        <v>133.211679303368</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>159.0300338718172</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22725,31 +22725,31 @@
         <v>154.8907084131551</v>
       </c>
       <c r="I4" t="n">
-        <v>130.6355227555885</v>
+        <v>130.6355227555884</v>
       </c>
       <c r="J4" t="n">
-        <v>68.65627904547948</v>
+        <v>68.65627904547944</v>
       </c>
       <c r="K4" t="n">
-        <v>33.14412614092828</v>
+        <v>33.14412614092821</v>
       </c>
       <c r="L4" t="n">
-        <v>12.20519387026839</v>
+        <v>12.20519387026832</v>
       </c>
       <c r="M4" t="n">
-        <v>9.577470677924651</v>
+        <v>9.577470677924566</v>
       </c>
       <c r="N4" t="n">
-        <v>1.412844977410202</v>
+        <v>1.412844977410117</v>
       </c>
       <c r="O4" t="n">
-        <v>21.823262646183</v>
+        <v>21.82326264618293</v>
       </c>
       <c r="P4" t="n">
-        <v>37.92808757638606</v>
+        <v>37.92808757638599</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.40871249605685</v>
+        <v>82.40871249605681</v>
       </c>
       <c r="R4" t="n">
         <v>140.1909870721275</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>278.6574331118937</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>294.7633856167878</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.3887043444878</v>
+        <v>413.4194771333126</v>
       </c>
       <c r="H5" t="n">
-        <v>319.8727099068761</v>
+        <v>320.1878617304277</v>
       </c>
       <c r="I5" t="n">
-        <v>136.685125759028</v>
+        <v>137.8714937001947</v>
       </c>
       <c r="J5" t="n">
-        <v>18.59473170946464</v>
+        <v>21.20653369498052</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>97.28618285447573</v>
       </c>
       <c r="S5" t="n">
-        <v>53.29137858519758</v>
+        <v>166.1052736354656</v>
       </c>
       <c r="T5" t="n">
-        <v>114.8204701728455</v>
+        <v>142.1161319073829</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1925302541847</v>
+        <v>147.1185835257039</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>223.6758499185481</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22868,25 +22868,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>78.26776747023258</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>45.53242033047729</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>24.20675900740719</v>
+        <v>136.3358840258987</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>102.5038294629841</v>
       </c>
       <c r="I6" t="n">
-        <v>64.26286446312977</v>
+        <v>64.82974786009447</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>31.63839240861512</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.095592888813</v>
+        <v>83.11786057893175</v>
       </c>
       <c r="S6" t="n">
-        <v>152.6609993460486</v>
+        <v>152.9668275226277</v>
       </c>
       <c r="T6" t="n">
-        <v>196.0368949650912</v>
+        <v>92.02685148889424</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8740072105222</v>
+        <v>225.8750904272043</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>152.4883744940613</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>147.6185746093328</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>101.6965766518906</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,49 +22956,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.1324099710516</v>
+        <v>167.1462135847273</v>
       </c>
       <c r="H7" t="n">
-        <v>154.5937101357652</v>
+        <v>153.1613533216954</v>
       </c>
       <c r="I7" t="n">
-        <v>129.630951895051</v>
+        <v>130.0460642044984</v>
       </c>
       <c r="J7" t="n">
-        <v>66.29456574971167</v>
+        <v>67.27048123658358</v>
       </c>
       <c r="K7" t="n">
-        <v>29.26310570632462</v>
+        <v>30.86683464064672</v>
       </c>
       <c r="L7" t="n">
-        <v>7.238823902544752</v>
+        <v>9.291044793929998</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7157523946084789</v>
+        <v>6.504909070776392</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>17.10165812996878</v>
+        <v>19.05273617933028</v>
       </c>
       <c r="P7" t="n">
-        <v>33.88793923037925</v>
+        <v>35.55742356075649</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.61152319847201</v>
+        <v>80.76738761271621</v>
       </c>
       <c r="R7" t="n">
-        <v>138.6889896488451</v>
+        <v>139.3096503146633</v>
       </c>
       <c r="S7" t="n">
-        <v>209.0540751673406</v>
+        <v>209.294634507489</v>
       </c>
       <c r="T7" t="n">
-        <v>224.2771565911783</v>
+        <v>224.3361356677926</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2721982989959</v>
+        <v>286.2729512233782</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23026,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>265.1684450450224</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.3887043444878</v>
+        <v>413.3269657558448</v>
       </c>
       <c r="H8" t="n">
-        <v>319.8727099068761</v>
+        <v>192.294573488446</v>
       </c>
       <c r="I8" t="n">
-        <v>136.685125759028</v>
+        <v>134.3049488203661</v>
       </c>
       <c r="J8" t="n">
-        <v>15.19905232989398</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,25 +23065,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61164031771682</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>91.47496503961203</v>
       </c>
       <c r="S8" t="n">
-        <v>53.29137858519753</v>
+        <v>163.9971706214174</v>
       </c>
       <c r="T8" t="n">
-        <v>214.717169359623</v>
+        <v>87.50105259034871</v>
       </c>
       <c r="U8" t="n">
-        <v>139.079870129261</v>
+        <v>251.1875911670933</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>200.8064023726456</v>
       </c>
       <c r="W8" t="n">
-        <v>237.1283085924893</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23105,16 +23105,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>78.8765429943347</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>140.1547787621074</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>24.20675900740714</v>
+        <v>136.2863860752092</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -23123,7 +23123,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>26.96192154983116</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.095592888813</v>
+        <v>80.04464571068304</v>
       </c>
       <c r="S9" t="n">
-        <v>152.6609993460486</v>
+        <v>152.0474247981975</v>
       </c>
       <c r="T9" t="n">
-        <v>83.9242348401675</v>
+        <v>195.9037485637984</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8740072105222</v>
+        <v>225.87183398308</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>105.854731051936</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>78.73683967981506</v>
       </c>
     </row>
     <row r="10">
@@ -23193,49 +23193,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.1324099710516</v>
+        <v>167.1047161656132</v>
       </c>
       <c r="H10" t="n">
-        <v>154.5937101357652</v>
+        <v>154.3474870292306</v>
       </c>
       <c r="I10" t="n">
-        <v>129.630951895051</v>
+        <v>128.7981236369563</v>
       </c>
       <c r="J10" t="n">
-        <v>66.29456574971167</v>
+        <v>64.3366137052127</v>
       </c>
       <c r="K10" t="n">
-        <v>29.26310570632462</v>
+        <v>26.04558903811107</v>
       </c>
       <c r="L10" t="n">
-        <v>7.238823902544752</v>
+        <v>3.12151031944893</v>
       </c>
       <c r="M10" t="n">
-        <v>4.341129883412066</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>13.4762806411652</v>
+        <v>13.18726461217658</v>
       </c>
       <c r="P10" t="n">
-        <v>33.88793923037925</v>
+        <v>30.5384993435316</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.61152319847201</v>
+        <v>77.2925446358026</v>
       </c>
       <c r="R10" t="n">
-        <v>138.6889896488451</v>
+        <v>137.4437754515849</v>
       </c>
       <c r="S10" t="n">
-        <v>209.0540751673406</v>
+        <v>208.5714476671086</v>
       </c>
       <c r="T10" t="n">
-        <v>224.2771565911783</v>
+        <v>224.1588285133958</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2721982989959</v>
+        <v>278.4917370809017</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>144.0207294816883</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>327.2024092529859</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>8.312055285632852</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S12" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T12" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>132.6094260731184</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>115.5698862839502</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R13" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S13" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T13" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>100.6071071548253</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>192.7120251242562</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>119.1301513833819</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23576,25 +23576,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>134.6739974555994</v>
       </c>
       <c r="D15" t="n">
-        <v>95.5925194853412</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I15" t="n">
-        <v>36.29946757904885</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S15" t="n">
         <v>137.5750138932992</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>138.1645775682057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R16" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S16" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T16" t="n">
         <v>221.3678187343026</v>
@@ -23712,10 +23712,10 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>66.50969266293657</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>204.8538504379707</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>84.39578915567722</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.8541122488589</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H17" t="n">
-        <v>304.1565686075169</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>77.52276399229612</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>130.4345213309784</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>207.9994924610077</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0697628865344</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>158.9995875140979</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.4983399747498</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H18" t="n">
-        <v>94.41491717951935</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>35.9932531165893</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>31.11666063128088</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S18" t="n">
-        <v>137.4098141164182</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8199888448919</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>178.3551850043423</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4440447871722</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H19" t="n">
-        <v>148.4735178645464</v>
+        <v>65.0035021966949</v>
       </c>
       <c r="I19" t="n">
-        <v>108.9299334562043</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J19" t="n">
-        <v>17.62714724943643</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,22 +23934,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>21.97032584653229</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R19" t="n">
-        <v>107.737587835503</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S19" t="n">
-        <v>197.0577473719147</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T19" t="n">
-        <v>221.3359598964207</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>60.105128698915</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>376.0919018598713</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>220.4922485349231</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24056,19 +24056,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.4983399747498</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H21" t="n">
-        <v>94.41491717951935</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I21" t="n">
-        <v>35.99325311658932</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>31.11666063128094</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>76.83436461953534</v>
       </c>
       <c r="U21" t="n">
-        <v>72.07003206198559</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H22" t="n">
-        <v>148.4735178645464</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J22" t="n">
-        <v>17.62714724943648</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,22 +24171,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>21.97032584653235</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R22" t="n">
-        <v>107.737587835503</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S22" t="n">
-        <v>197.0577473719147</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T22" t="n">
-        <v>221.3359598964207</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U22" t="n">
-        <v>83.34146361846393</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>178.4033278603791</v>
       </c>
     </row>
     <row r="23">
@@ -24211,13 +24211,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>6.7459352060703</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>309.9197902977882</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>51.97627076868451</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>34.98324540096844</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>319.8626636141396</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>326.5574464030188</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24539,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>104.6566332501587</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>207.4278861092286</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>10.39703918682279</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>354.3925542082079</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>94.15744254776799</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>132.0201147630254</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>371.6384731685169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>101.8363156449109</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629279</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>100.0885683469953</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>222.7020862222423</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>106.8719969211998</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25368,16 +25368,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>204.750994762928</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>165.1363383284342</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>292.3254924742274</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>60.71080631283667</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>72.76148449102827</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25602,19 +25602,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>194.7652431262853</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>327.0855007190668</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25712,7 +25712,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>124.462387396822</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>72.66698746754865</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -25842,13 +25842,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,16 +25867,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>33.17673103327553</v>
+        <v>170.5349263790318</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>117.1829072713167</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>78.40425870347563</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26076,7 +26076,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355774.7999316615</v>
+        <v>355774.7999316617</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>372223.8826140433</v>
+        <v>365427.0972111509</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>372223.8826140433</v>
+        <v>385066.2728656445</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>671458.5347830958</v>
+        <v>671458.5347830963</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671458.5347830958</v>
+        <v>671458.5347830964</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>674682.5429464128</v>
+        <v>671458.5347830957</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>674682.5429464129</v>
+        <v>671458.5347830957</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587486</v>
       </c>
     </row>
     <row r="15">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>123152.8153609596</v>
+        <v>123152.8153609597</v>
       </c>
       <c r="C2" t="n">
-        <v>128846.7285971687</v>
+        <v>126493.9951884752</v>
       </c>
       <c r="D2" t="n">
-        <v>128846.7285971687</v>
+        <v>133292.1713765692</v>
       </c>
       <c r="E2" t="n">
+        <v>232427.9543479948</v>
+      </c>
+      <c r="F2" t="n">
+        <v>232427.9543479948</v>
+      </c>
+      <c r="G2" t="n">
         <v>232427.9543479944</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>232427.9543479945</v>
-      </c>
-      <c r="G2" t="n">
-        <v>233543.9571737582</v>
-      </c>
-      <c r="H2" t="n">
-        <v>233543.9571737582</v>
       </c>
       <c r="I2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="J2" t="n">
-        <v>296136.8796318747</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="K2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="L2" t="n">
         <v>296136.8796318746</v>
@@ -26349,7 +26349,7 @@
         <v>296136.8796318746</v>
       </c>
       <c r="N2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318745</v>
       </c>
       <c r="O2" t="n">
         <v>296136.8796318746</v>
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>471995.0992489056</v>
+        <v>471995.099248906</v>
       </c>
       <c r="C3" t="n">
-        <v>23151.37050443033</v>
+        <v>13584.67963722316</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>26811.9111483392</v>
       </c>
       <c r="E3" t="n">
-        <v>431750.1118760437</v>
+        <v>414983.0052652112</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4603.61481600064</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>250165.8687255885</v>
+        <v>254625.8275892824</v>
       </c>
       <c r="J3" t="n">
-        <v>24245.2279917978</v>
+        <v>24245.22799179786</v>
       </c>
       <c r="K3" t="n">
-        <v>5005.218442393812</v>
+        <v>2936.944447467198</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5788.051348839942</v>
       </c>
       <c r="M3" t="n">
-        <v>107158.2923222153</v>
+        <v>103461.8005530683</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1219.394509623253</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.14558386063672</v>
+        <v>67.14558386063692</v>
       </c>
       <c r="C4" t="n">
-        <v>81.37067654131212</v>
+        <v>75.47151608995263</v>
       </c>
       <c r="D4" t="n">
-        <v>81.37067654131212</v>
+        <v>92.27146491182731</v>
       </c>
       <c r="E4" t="n">
+        <v>384.3219252469144</v>
+      </c>
+      <c r="F4" t="n">
+        <v>384.3219252469144</v>
+      </c>
+      <c r="G4" t="n">
+        <v>384.3219252469135</v>
+      </c>
+      <c r="H4" t="n">
         <v>384.3219252469136</v>
-      </c>
-      <c r="F4" t="n">
-        <v>384.3219252469136</v>
-      </c>
-      <c r="G4" t="n">
-        <v>387.8150062118717</v>
-      </c>
-      <c r="H4" t="n">
-        <v>387.8150062118714</v>
       </c>
       <c r="I4" t="n">
         <v>584.646989006123</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49237.11966583622</v>
+        <v>49237.11966583625</v>
       </c>
       <c r="C5" t="n">
-        <v>50823.37311172271</v>
+        <v>50167.89587546434</v>
       </c>
       <c r="D5" t="n">
-        <v>50823.37311172271</v>
+        <v>52060.02435841889</v>
       </c>
       <c r="E5" t="n">
+        <v>51571.48185587232</v>
+      </c>
+      <c r="F5" t="n">
+        <v>51571.48185587232</v>
+      </c>
+      <c r="G5" t="n">
         <v>51571.48185587223</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>51571.48185587223</v>
-      </c>
-      <c r="G5" t="n">
-        <v>51969.69964688938</v>
-      </c>
-      <c r="H5" t="n">
-        <v>51969.69964688938</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-398146.5491376429</v>
+        <v>-411830.7703086414</v>
       </c>
       <c r="C6" t="n">
-        <v>54790.61430447433</v>
+        <v>49167.34809022816</v>
       </c>
       <c r="D6" t="n">
-        <v>77941.9848089047</v>
+        <v>41207.04079032379</v>
       </c>
       <c r="E6" t="n">
-        <v>-251277.9613091684</v>
+        <v>-242124.2348144985</v>
       </c>
       <c r="F6" t="n">
-        <v>180472.1505668754</v>
+        <v>172858.7704507126</v>
       </c>
       <c r="G6" t="n">
-        <v>176582.8277046563</v>
+        <v>172858.7704507135</v>
       </c>
       <c r="H6" t="n">
-        <v>181186.4425206572</v>
+        <v>172858.7704507124</v>
       </c>
       <c r="I6" t="n">
-        <v>-28919.97664411341</v>
+        <v>-37453.93088597678</v>
       </c>
       <c r="J6" t="n">
-        <v>197000.6640896775</v>
+        <v>192926.6687115077</v>
       </c>
       <c r="K6" t="n">
-        <v>216240.6736390812</v>
+        <v>214234.9522558382</v>
       </c>
       <c r="L6" t="n">
-        <v>221245.8920814752</v>
+        <v>211383.8453544656</v>
       </c>
       <c r="M6" t="n">
-        <v>114087.5997592599</v>
+        <v>113710.0961502372</v>
       </c>
       <c r="N6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="O6" t="n">
-        <v>220026.4975718519</v>
+        <v>217171.8967033058</v>
       </c>
       <c r="P6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033056</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641655</v>
+        <v>457.5913187641658</v>
       </c>
       <c r="C3" t="n">
-        <v>476.1157511985022</v>
+        <v>468.461019978342</v>
       </c>
       <c r="D3" t="n">
-        <v>476.1157511985022</v>
+        <v>491.4732251234652</v>
       </c>
       <c r="E3" t="n">
+        <v>853.7106645376851</v>
+      </c>
+      <c r="F3" t="n">
+        <v>853.7106645376851</v>
+      </c>
+      <c r="G3" t="n">
+        <v>853.710664537684</v>
+      </c>
+      <c r="H3" t="n">
         <v>853.7106645376841</v>
-      </c>
-      <c r="F3" t="n">
-        <v>853.7106645376841</v>
-      </c>
-      <c r="G3" t="n">
-        <v>857.8455349861825</v>
-      </c>
-      <c r="H3" t="n">
-        <v>857.8455349861822</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="C4" t="n">
-        <v>112.1126601249237</v>
+        <v>104.0764085515868</v>
       </c>
       <c r="D4" t="n">
-        <v>112.1126601249237</v>
+        <v>126.9458560974893</v>
       </c>
       <c r="E4" t="n">
+        <v>542.1149567261643</v>
+      </c>
+      <c r="F4" t="n">
+        <v>542.1149567261643</v>
+      </c>
+      <c r="G4" t="n">
         <v>542.1149567261632</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>542.1149567261632</v>
-      </c>
-      <c r="G4" t="n">
-        <v>547.1820227662929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>547.1820227662929</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022926</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641655</v>
+        <v>457.5913187641658</v>
       </c>
       <c r="C3" t="n">
-        <v>18.52443243433669</v>
+        <v>10.8697012141762</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01220514512318</v>
       </c>
       <c r="E3" t="n">
-        <v>377.5949133391819</v>
+        <v>362.23743941422</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.134870448498418</v>
+        <v>-4.354043642273797e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>231.9311656071159</v>
+        <v>236.0660360556139</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="C4" t="n">
-        <v>19.44771083582145</v>
+        <v>11.41145926248439</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>22.86944754590246</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0022966012395</v>
+        <v>415.169100628675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5.067066040129703</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>284.2194326359997</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="J4" t="n">
-        <v>92.66494928910197</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="K4" t="n">
-        <v>19.44771083582191</v>
+        <v>11.41145926248484</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>22.86944754590223</v>
       </c>
       <c r="M4" t="n">
-        <v>430.0022966012395</v>
+        <v>415.169100628675</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>5.067066040129703</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="K4" t="n">
-        <v>19.44771083582145</v>
+        <v>11.41145926248439</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>22.86944754590246</v>
       </c>
       <c r="M4" t="n">
-        <v>430.0022966012395</v>
+        <v>415.169100628675</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>5.067066040129703</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.839563090509207</v>
+        <v>1.839563090509208</v>
       </c>
       <c r="H2" t="n">
-        <v>18.83942550067742</v>
+        <v>18.83942550067743</v>
       </c>
       <c r="I2" t="n">
-        <v>70.91975604685626</v>
+        <v>70.91975604685631</v>
       </c>
       <c r="J2" t="n">
-        <v>156.1306178531059</v>
+        <v>156.130617853106</v>
       </c>
       <c r="K2" t="n">
-        <v>233.9993234743607</v>
+        <v>233.9993234743608</v>
       </c>
       <c r="L2" t="n">
-        <v>290.2968524055319</v>
+        <v>290.2968524055321</v>
       </c>
       <c r="M2" t="n">
-        <v>323.011182516375</v>
+        <v>323.0111825163752</v>
       </c>
       <c r="N2" t="n">
-        <v>322.0780128856931</v>
+        <v>322.0780128856934</v>
       </c>
       <c r="O2" t="n">
-        <v>309.9456856660333</v>
+        <v>309.9456856660335</v>
       </c>
       <c r="P2" t="n">
-        <v>264.5314718690873</v>
+        <v>264.5314718690875</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.6521186902262</v>
+        <v>198.6521186902264</v>
       </c>
       <c r="R2" t="n">
         <v>115.5544549841991</v>
       </c>
       <c r="S2" t="n">
-        <v>41.91904392497859</v>
+        <v>41.91904392497862</v>
       </c>
       <c r="T2" t="n">
-        <v>8.052687428704056</v>
+        <v>8.052687428704061</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1471650472407365</v>
+        <v>0.1471650472407366</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9842530252663183</v>
+        <v>0.984253025266319</v>
       </c>
       <c r="H3" t="n">
-        <v>9.505812112440497</v>
+        <v>9.505812112440502</v>
       </c>
       <c r="I3" t="n">
-        <v>33.88765898395</v>
+        <v>33.88765898395002</v>
       </c>
       <c r="J3" t="n">
-        <v>92.99032639149897</v>
+        <v>92.99032639149904</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>158.9352790843424</v>
       </c>
       <c r="L3" t="n">
-        <v>174.5829003017953</v>
+        <v>213.7080965605663</v>
       </c>
       <c r="M3" t="n">
-        <v>234.7989832111205</v>
+        <v>234.7989832111208</v>
       </c>
       <c r="N3" t="n">
-        <v>224.0066613724355</v>
+        <v>224.0066613724358</v>
       </c>
       <c r="O3" t="n">
-        <v>234.1788327264121</v>
+        <v>227.9345477768585</v>
       </c>
       <c r="P3" t="n">
-        <v>187.9491588335306</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.6390352953988</v>
+        <v>125.6390352953989</v>
       </c>
       <c r="R3" t="n">
-        <v>61.11002555118424</v>
+        <v>61.11002555118428</v>
       </c>
       <c r="S3" t="n">
-        <v>18.28206825439849</v>
+        <v>18.2820682543985</v>
       </c>
       <c r="T3" t="n">
-        <v>3.967230395700641</v>
+        <v>3.967230395700644</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06475348850436308</v>
+        <v>0.06475348850436312</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8251646731812819</v>
+        <v>0.8251646731812825</v>
       </c>
       <c r="H4" t="n">
-        <v>7.336464094284494</v>
+        <v>7.336464094284499</v>
       </c>
       <c r="I4" t="n">
-        <v>24.81495217166983</v>
+        <v>24.81495217166985</v>
       </c>
       <c r="J4" t="n">
-        <v>58.33914239391663</v>
+        <v>58.33914239391667</v>
       </c>
       <c r="K4" t="n">
-        <v>95.8691320296071</v>
+        <v>95.86913202960717</v>
       </c>
       <c r="L4" t="n">
-        <v>122.6794824109699</v>
+        <v>122.67948241097</v>
       </c>
       <c r="M4" t="n">
-        <v>129.3483132696804</v>
+        <v>129.3483132696805</v>
       </c>
       <c r="N4" t="n">
-        <v>126.272699487823</v>
+        <v>126.2726994878231</v>
       </c>
       <c r="O4" t="n">
-        <v>116.6332758056598</v>
+        <v>116.6332758056599</v>
       </c>
       <c r="P4" t="n">
-        <v>99.79991647276155</v>
+        <v>99.79991647276162</v>
       </c>
       <c r="Q4" t="n">
-        <v>69.09628913338899</v>
+        <v>69.09628913338904</v>
       </c>
       <c r="R4" t="n">
-        <v>37.102404305042</v>
+        <v>37.10240430504202</v>
       </c>
       <c r="S4" t="n">
-        <v>14.38036980444106</v>
+        <v>14.38036980444107</v>
       </c>
       <c r="T4" t="n">
-        <v>3.52570360359275</v>
+        <v>3.525703603592752</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04500898217352452</v>
+        <v>0.04500898217352455</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.914033170647244</v>
+        <v>1.883260381822479</v>
       </c>
       <c r="H5" t="n">
-        <v>19.60209220889109</v>
+        <v>19.28694038533947</v>
       </c>
       <c r="I5" t="n">
-        <v>73.79076381137793</v>
+        <v>72.60439587021119</v>
       </c>
       <c r="J5" t="n">
-        <v>162.4511728172216</v>
+        <v>159.8393708317058</v>
       </c>
       <c r="K5" t="n">
-        <v>243.4721969307195</v>
+        <v>239.5577827942514</v>
       </c>
       <c r="L5" t="n">
-        <v>302.0487895769152</v>
+        <v>297.1926127044511</v>
       </c>
       <c r="M5" t="n">
-        <v>336.087476975413</v>
+        <v>330.6840445196866</v>
       </c>
       <c r="N5" t="n">
-        <v>341.5257237215146</v>
+        <v>333.4894721481778</v>
       </c>
       <c r="O5" t="n">
-        <v>322.493056380891</v>
+        <v>317.3081876577925</v>
       </c>
       <c r="P5" t="n">
-        <v>275.2403624805372</v>
+        <v>270.8151969815499</v>
       </c>
       <c r="Q5" t="n">
-        <v>206.6940495567327</v>
+        <v>203.3709345575324</v>
       </c>
       <c r="R5" t="n">
-        <v>120.23238615567</v>
+        <v>118.2993549596564</v>
       </c>
       <c r="S5" t="n">
-        <v>43.61603087612411</v>
+        <v>42.91479595077978</v>
       </c>
       <c r="T5" t="n">
-        <v>8.378680204508314</v>
+        <v>8.243972321427906</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1531226536517795</v>
+        <v>0.1506608305457983</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.024098030879797</v>
+        <v>1.007633137311905</v>
       </c>
       <c r="H6" t="n">
-        <v>9.890630982444359</v>
+        <v>9.731614773512351</v>
       </c>
       <c r="I6" t="n">
-        <v>35.25951553687022</v>
+        <v>34.69263213990552</v>
       </c>
       <c r="J6" t="n">
-        <v>96.75480562798998</v>
+        <v>95.19923425805158</v>
       </c>
       <c r="K6" t="n">
-        <v>165.3693736969364</v>
+        <v>162.7106544579492</v>
       </c>
       <c r="L6" t="n">
-        <v>222.3595307837911</v>
+        <v>218.7845546606398</v>
       </c>
       <c r="M6" t="n">
-        <v>254.246694046942</v>
+        <v>246.2104424736052</v>
       </c>
       <c r="N6" t="n">
-        <v>189.1706736602745</v>
+        <v>235.4181206349201</v>
       </c>
       <c r="O6" t="n">
-        <v>243.6589731628788</v>
+        <v>239.7415561392936</v>
       </c>
       <c r="P6" t="n">
-        <v>195.5578073177395</v>
+        <v>135.6774150420732</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.7252153102001</v>
+        <v>128.6234860891478</v>
       </c>
       <c r="R6" t="n">
-        <v>63.58391107515094</v>
+        <v>62.56164338503219</v>
       </c>
       <c r="S6" t="n">
-        <v>19.0221717577892</v>
+        <v>18.71634358121016</v>
       </c>
       <c r="T6" t="n">
-        <v>4.127833729730409</v>
+        <v>4.06146865434053</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06737487045261827</v>
+        <v>0.06629165377052013</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8585693874071351</v>
+        <v>0.8447657737314362</v>
       </c>
       <c r="H7" t="n">
-        <v>7.633462371674351</v>
+        <v>7.510735697357685</v>
       </c>
       <c r="I7" t="n">
-        <v>25.8195230322073</v>
+        <v>25.40441072275993</v>
       </c>
       <c r="J7" t="n">
-        <v>60.70085568968445</v>
+        <v>59.72494020281254</v>
       </c>
       <c r="K7" t="n">
-        <v>99.75015246421076</v>
+        <v>98.14642352988866</v>
       </c>
       <c r="L7" t="n">
-        <v>127.6458523786935</v>
+        <v>125.5936314873083</v>
       </c>
       <c r="M7" t="n">
-        <v>134.584654064193</v>
+        <v>132.4208748768287</v>
       </c>
       <c r="N7" t="n">
-        <v>131.3845318020392</v>
+        <v>129.2722024474662</v>
       </c>
       <c r="O7" t="n">
-        <v>121.354880321874</v>
+        <v>119.4038022725125</v>
       </c>
       <c r="P7" t="n">
-        <v>103.8400648187684</v>
+        <v>102.1705804883911</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.89347843097383</v>
+        <v>70.73761401672964</v>
       </c>
       <c r="R7" t="n">
-        <v>38.60440172832445</v>
+        <v>37.9837410625062</v>
       </c>
       <c r="S7" t="n">
-        <v>14.96252286963161</v>
+        <v>14.7219635294833</v>
       </c>
       <c r="T7" t="n">
-        <v>3.668432837103212</v>
+        <v>3.609453760488863</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04683105749493469</v>
+        <v>0.04607813311262385</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.914033170647244</v>
+        <v>1.975771759290311</v>
       </c>
       <c r="H8" t="n">
-        <v>19.60209220889109</v>
+        <v>20.2343725298319</v>
       </c>
       <c r="I8" t="n">
-        <v>73.79076381137793</v>
+        <v>76.17094075003978</v>
       </c>
       <c r="J8" t="n">
-        <v>162.4511728172216</v>
+        <v>167.6911583550662</v>
       </c>
       <c r="K8" t="n">
-        <v>243.4721969307195</v>
+        <v>251.3255769258251</v>
       </c>
       <c r="L8" t="n">
-        <v>302.0487895769152</v>
+        <v>311.7916019042059</v>
       </c>
       <c r="M8" t="n">
-        <v>336.087476975413</v>
+        <v>346.928232928485</v>
       </c>
       <c r="N8" t="n">
-        <v>341.5257237215146</v>
+        <v>352.5418944395686</v>
       </c>
       <c r="O8" t="n">
-        <v>322.493056380891</v>
+        <v>332.8953140081256</v>
       </c>
       <c r="P8" t="n">
-        <v>275.2403624805372</v>
+        <v>284.1184487006461</v>
       </c>
       <c r="Q8" t="n">
-        <v>206.6940495567327</v>
+        <v>213.3611225710617</v>
       </c>
       <c r="R8" t="n">
-        <v>120.23238615567</v>
+        <v>124.1105727745201</v>
       </c>
       <c r="S8" t="n">
-        <v>43.61603087612411</v>
+        <v>45.022898964828</v>
       </c>
       <c r="T8" t="n">
-        <v>8.378680204508314</v>
+        <v>8.64894087629334</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1531226536517795</v>
+        <v>0.1580617407432248</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.024098030879797</v>
+        <v>1.057131088001416</v>
       </c>
       <c r="H9" t="n">
-        <v>9.890630982444359</v>
+        <v>10.20966077096104</v>
       </c>
       <c r="I9" t="n">
-        <v>35.25951553687022</v>
+        <v>36.39683789829436</v>
       </c>
       <c r="J9" t="n">
-        <v>96.75480562798998</v>
+        <v>99.87570511683553</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>170.7034880129304</v>
       </c>
       <c r="L9" t="n">
-        <v>222.3595307837911</v>
+        <v>229.5319057522372</v>
       </c>
       <c r="M9" t="n">
-        <v>254.246694046942</v>
+        <v>267.8529076922885</v>
       </c>
       <c r="N9" t="n">
-        <v>243.454372208257</v>
+        <v>207.6241638755755</v>
       </c>
       <c r="O9" t="n">
-        <v>216.9032093374738</v>
+        <v>251.5183777667228</v>
       </c>
       <c r="P9" t="n">
-        <v>195.5578073177395</v>
+        <v>201.8656724096739</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.7252153102001</v>
+        <v>134.9418560754088</v>
       </c>
       <c r="R9" t="n">
-        <v>63.58391107515094</v>
+        <v>65.63485825328091</v>
       </c>
       <c r="S9" t="n">
-        <v>19.0221717577892</v>
+        <v>19.63574630564032</v>
       </c>
       <c r="T9" t="n">
-        <v>4.127833729730409</v>
+        <v>4.260980131023249</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06737487045261827</v>
+        <v>0.06954809789483002</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8585693874071351</v>
+        <v>0.8862631928455929</v>
       </c>
       <c r="H10" t="n">
-        <v>7.633462371674351</v>
+        <v>7.879685478209004</v>
       </c>
       <c r="I10" t="n">
-        <v>25.8195230322073</v>
+        <v>26.65235129030202</v>
       </c>
       <c r="J10" t="n">
-        <v>60.70085568968445</v>
+        <v>62.65880773418342</v>
       </c>
       <c r="K10" t="n">
-        <v>99.75015246421076</v>
+        <v>102.9676691324243</v>
       </c>
       <c r="L10" t="n">
-        <v>127.6458523786935</v>
+        <v>131.7631659617894</v>
       </c>
       <c r="M10" t="n">
-        <v>134.584654064193</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>131.3845318020392</v>
+        <v>135.6224393197261</v>
       </c>
       <c r="O10" t="n">
-        <v>121.354880321874</v>
+        <v>125.2692738396662</v>
       </c>
       <c r="P10" t="n">
-        <v>103.8400648187684</v>
+        <v>107.189504705616</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.89347843097383</v>
+        <v>74.21245699364324</v>
       </c>
       <c r="R10" t="n">
-        <v>38.60440172832445</v>
+        <v>39.84961592558456</v>
       </c>
       <c r="S10" t="n">
-        <v>14.96252286963161</v>
+        <v>15.44515036986364</v>
       </c>
       <c r="T10" t="n">
-        <v>3.668432837103212</v>
+        <v>3.786760914885714</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04683105749493469</v>
+        <v>0.04834162870066876</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H11" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I11" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J11" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K11" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L11" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M11" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N11" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O11" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P11" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q11" t="n">
-        <v>370.6176784928395</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R11" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S11" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T11" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U11" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H12" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I12" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J12" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K12" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L12" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M12" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N12" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O12" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P12" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q12" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R12" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S12" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T12" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H13" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I13" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J13" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K13" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L13" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M13" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N13" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O13" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P13" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R13" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S13" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T13" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H14" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I14" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J14" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K14" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L14" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M14" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N14" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O14" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P14" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q14" t="n">
-        <v>370.6176784928395</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R14" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S14" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T14" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U14" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H15" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I15" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J15" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K15" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L15" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M15" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N15" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O15" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P15" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q15" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R15" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S15" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T15" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H16" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I16" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J16" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K16" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L16" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M16" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N16" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O16" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P16" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R16" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S16" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T16" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.448625266276108</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H17" t="n">
-        <v>35.3182335082502</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I17" t="n">
-        <v>132.9531255781098</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J17" t="n">
-        <v>292.6977586936021</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K17" t="n">
-        <v>438.6780662150699</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L17" t="n">
-        <v>544.2189317078673</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M17" t="n">
-        <v>605.5484212870051</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N17" t="n">
-        <v>615.3468278248122</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O17" t="n">
-        <v>581.054560333279</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P17" t="n">
-        <v>495.9166240720876</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q17" t="n">
-        <v>372.4127317235743</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R17" t="n">
-        <v>216.6297068827168</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S17" t="n">
-        <v>78.58554825526689</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T17" t="n">
-        <v>15.09635710312367</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2758900213020886</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.845177188460845</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H18" t="n">
-        <v>17.82052705697712</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I18" t="n">
-        <v>63.5291268834107</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J18" t="n">
-        <v>174.3287798975223</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K18" t="n">
-        <v>297.9556515243989</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L18" t="n">
-        <v>400.6381434857639</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M18" t="n">
-        <v>467.5258165674694</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N18" t="n">
-        <v>479.8998337655249</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O18" t="n">
-        <v>439.0145918527872</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P18" t="n">
-        <v>352.3479141719662</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.5352495305459</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R18" t="n">
-        <v>114.5628433326831</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S18" t="n">
-        <v>34.27335698741963</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T18" t="n">
-        <v>7.437358930682089</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1213932360829504</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.546934571286559</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H19" t="n">
-        <v>13.75365464289323</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I19" t="n">
-        <v>46.52054147105397</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J19" t="n">
-        <v>109.3682741899597</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K19" t="n">
-        <v>179.7256711003837</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L19" t="n">
-        <v>229.9869816256398</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M19" t="n">
-        <v>242.4890255699466</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N19" t="n">
-        <v>236.7231785315151</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O19" t="n">
-        <v>218.6521701305766</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P19" t="n">
-        <v>187.0947048763306</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q19" t="n">
-        <v>129.5346757829136</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R19" t="n">
-        <v>69.55580354166652</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S19" t="n">
-        <v>26.95885066505756</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T19" t="n">
-        <v>6.609629531860748</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08437824934290329</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.448625266276107</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H20" t="n">
-        <v>35.31823350825019</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I20" t="n">
-        <v>132.9531255781097</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J20" t="n">
-        <v>292.697758693602</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K20" t="n">
-        <v>438.6780662150697</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L20" t="n">
-        <v>544.2189317078672</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M20" t="n">
-        <v>605.5484212870049</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N20" t="n">
-        <v>615.346827824812</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O20" t="n">
-        <v>581.0545603332788</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P20" t="n">
-        <v>495.9166240720874</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q20" t="n">
-        <v>372.4127317235742</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R20" t="n">
-        <v>216.6297068827167</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S20" t="n">
-        <v>78.58554825526686</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T20" t="n">
-        <v>15.09635710312367</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2758900213020885</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.845177188460845</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H21" t="n">
-        <v>17.82052705697711</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I21" t="n">
-        <v>63.52912688341068</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J21" t="n">
-        <v>174.3287798975222</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K21" t="n">
-        <v>297.9556515243988</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L21" t="n">
-        <v>400.6381434857637</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M21" t="n">
-        <v>467.5258165674692</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N21" t="n">
-        <v>479.8998337655247</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O21" t="n">
-        <v>439.014591852787</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P21" t="n">
-        <v>352.3479141719661</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.5352495305457</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R21" t="n">
-        <v>114.562843332683</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S21" t="n">
-        <v>34.27335698741962</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T21" t="n">
-        <v>7.437358930682087</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1213932360829504</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.546934571286558</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H22" t="n">
-        <v>13.75365464289322</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I22" t="n">
-        <v>46.52054147105395</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J22" t="n">
-        <v>109.3682741899596</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K22" t="n">
-        <v>179.7256711003837</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L22" t="n">
-        <v>229.9869816256397</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M22" t="n">
-        <v>242.4890255699465</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N22" t="n">
-        <v>236.723178531515</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O22" t="n">
-        <v>218.6521701305765</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P22" t="n">
-        <v>187.0947048763305</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q22" t="n">
-        <v>129.5346757829135</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R22" t="n">
-        <v>69.55580354166649</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S22" t="n">
-        <v>26.95885066505755</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T22" t="n">
-        <v>6.609629531860746</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08437824934290325</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>13.90947242938014</v>
+        <v>13.90947242938029</v>
       </c>
       <c r="L2" t="n">
-        <v>54.53043743554463</v>
+        <v>54.53043743554485</v>
       </c>
       <c r="M2" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="N2" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="O2" t="n">
-        <v>79.84747424434661</v>
+        <v>79.84747424434678</v>
       </c>
       <c r="P2" t="n">
-        <v>33.29847611381774</v>
+        <v>33.29847611381791</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>21.0938401099834</v>
       </c>
       <c r="L3" t="n">
-        <v>36.02852052192112</v>
+        <v>75.15371678069215</v>
       </c>
       <c r="M3" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="N3" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="O3" t="n">
-        <v>91.5825882819677</v>
+        <v>85.33830333241407</v>
       </c>
       <c r="P3" t="n">
-        <v>53.97475141920032</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>23.38234588573897</v>
+        <v>19.4679317492708</v>
       </c>
       <c r="L5" t="n">
-        <v>66.28237460692793</v>
+        <v>61.42619773446387</v>
       </c>
       <c r="M5" t="n">
-        <v>105.7412437481403</v>
+        <v>100.3378112924139</v>
       </c>
       <c r="N5" t="n">
-        <v>112.1126601249237</v>
+        <v>104.0764085515868</v>
       </c>
       <c r="O5" t="n">
-        <v>92.39484495920428</v>
+        <v>87.20997623610575</v>
       </c>
       <c r="P5" t="n">
-        <v>44.00736672526762</v>
+        <v>39.5822012262804</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>27.52793472257738</v>
+        <v>24.86921548359024</v>
       </c>
       <c r="L6" t="n">
-        <v>83.8051510039169</v>
+        <v>80.23017488076565</v>
       </c>
       <c r="M6" t="n">
-        <v>112.1126601249237</v>
+        <v>104.0764085515868</v>
       </c>
       <c r="N6" t="n">
-        <v>57.82896157694119</v>
+        <v>104.0764085515868</v>
       </c>
       <c r="O6" t="n">
-        <v>101.0627287184343</v>
+        <v>97.14531169484914</v>
       </c>
       <c r="P6" t="n">
-        <v>61.58339990340929</v>
+        <v>1.703007627742928</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35105,7 +35105,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3.698987336806027</v>
+        <v>1.586657982232964</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>23.38234588573897</v>
+        <v>31.23572588084451</v>
       </c>
       <c r="L8" t="n">
-        <v>66.28237460692793</v>
+        <v>76.02518693421871</v>
       </c>
       <c r="M8" t="n">
-        <v>105.7412437481403</v>
+        <v>116.5819997012123</v>
       </c>
       <c r="N8" t="n">
-        <v>112.1126601249237</v>
+        <v>123.1288308429777</v>
       </c>
       <c r="O8" t="n">
-        <v>92.39484495920428</v>
+        <v>102.7971025864389</v>
       </c>
       <c r="P8" t="n">
-        <v>44.00736672526762</v>
+        <v>52.88545294537653</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>32.86204903857137</v>
       </c>
       <c r="L9" t="n">
-        <v>83.8051510039169</v>
+        <v>90.97752597236305</v>
       </c>
       <c r="M9" t="n">
-        <v>112.1126601249237</v>
+        <v>125.7188737702702</v>
       </c>
       <c r="N9" t="n">
-        <v>112.1126601249237</v>
+        <v>76.28245179224218</v>
       </c>
       <c r="O9" t="n">
-        <v>74.30696489302935</v>
+        <v>108.9221333222784</v>
       </c>
       <c r="P9" t="n">
-        <v>61.58339990340929</v>
+        <v>67.89126499534362</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35342,7 +35342,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.698987336806027</v>
+        <v>7.936894854492948</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K11" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L11" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M11" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N11" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O11" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P11" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>46.6508773409395</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K12" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L12" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M12" t="n">
-        <v>323.1382782510195</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N12" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O12" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P12" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M13" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N13" t="n">
-        <v>107.8966131767807</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O13" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P13" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K14" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L14" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M14" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N14" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O14" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P14" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>46.6508773409395</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K15" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L15" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M15" t="n">
-        <v>323.1382782510195</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N15" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O15" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P15" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M16" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N16" t="n">
-        <v>107.8966131767807</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O16" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P16" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>111.6518541669158</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K17" t="n">
-        <v>218.5882151700893</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L17" t="n">
-        <v>308.4525167378801</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M17" t="n">
-        <v>375.2021880597324</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N17" t="n">
-        <v>385.9337642282213</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O17" t="n">
-        <v>350.9563489115923</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P17" t="n">
-        <v>264.683628316818</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.1070418491248</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R17" t="n">
-        <v>1.044169068584637</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>47.49115323085559</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K18" t="n">
-        <v>160.11421255004</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L18" t="n">
-        <v>262.0837637058897</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M18" t="n">
-        <v>325.3917826454511</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N18" t="n">
-        <v>348.5581216821917</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O18" t="n">
-        <v>296.4183474083428</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P18" t="n">
-        <v>218.373506757636</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.55347544452434</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>50.71241292984837</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L19" t="n">
-        <v>95.10230534440154</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M19" t="n">
-        <v>103.5632416223415</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N19" t="n">
-        <v>109.0376340662819</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O19" t="n">
-        <v>80.19563167873378</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P19" t="n">
-        <v>49.366700827183</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>111.6518541669157</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K20" t="n">
-        <v>218.5882151700891</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L20" t="n">
-        <v>308.45251673788</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M20" t="n">
-        <v>375.2021880597322</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N20" t="n">
-        <v>385.933764228221</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O20" t="n">
-        <v>350.956348911592</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P20" t="n">
-        <v>264.6836283168178</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.1070418491247</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R20" t="n">
-        <v>1.044169068584551</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>47.4911532308555</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K21" t="n">
-        <v>160.1142125500398</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L21" t="n">
-        <v>262.0837637058896</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M21" t="n">
-        <v>325.3917826454509</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N21" t="n">
-        <v>348.5581216821914</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O21" t="n">
-        <v>296.4183474083426</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P21" t="n">
-        <v>218.3735067576358</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.55347544452422</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>50.71241292984831</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L22" t="n">
-        <v>95.10230534440146</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M22" t="n">
-        <v>103.5632416223415</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N22" t="n">
-        <v>109.0376340662818</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O22" t="n">
-        <v>80.19563167873369</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P22" t="n">
-        <v>49.36670082718291</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
